--- a/src/data/read_csvs_merged_syunto.xlsx
+++ b/src/data/read_csvs_merged_syunto.xlsx
@@ -8,40 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pdf_to_df\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4630D0FB-7CBD-42AC-8FA5-3B540432B31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0B1D9553-A30C-4E8B-A86A-4BBDD99BF3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22425" yWindow="10185" windowWidth="27360" windowHeight="15285" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="22425" yWindow="10185" windowWidth="27360" windowHeight="15285"/>
   </bookViews>
   <sheets>
-    <sheet name="夏季型まとめ" sheetId="13" r:id="rId1"/>
-    <sheet name="年間型まとめ" sheetId="12" r:id="rId2"/>
-    <sheet name="夏季型" sheetId="9" r:id="rId3"/>
-    <sheet name="年間型" sheetId="8" r:id="rId4"/>
-    <sheet name="冬季型" sheetId="21" r:id="rId5"/>
-    <sheet name="winter_y2017" sheetId="14" r:id="rId6"/>
-    <sheet name="winter_y2018" sheetId="15" r:id="rId7"/>
-    <sheet name="winter_y2019" sheetId="16" r:id="rId8"/>
-    <sheet name="winter_y2020" sheetId="17" r:id="rId9"/>
-    <sheet name="winter_y2021" sheetId="18" r:id="rId10"/>
-    <sheet name="winter_y2022" sheetId="19" r:id="rId11"/>
-    <sheet name="winter_y2023" sheetId="20" r:id="rId12"/>
-    <sheet name="y2017" sheetId="1" r:id="rId13"/>
-    <sheet name="y2018" sheetId="2" r:id="rId14"/>
-    <sheet name="y2019" sheetId="3" r:id="rId15"/>
-    <sheet name="y2020" sheetId="4" r:id="rId16"/>
-    <sheet name="y2021" sheetId="5" r:id="rId17"/>
-    <sheet name="y2022" sheetId="6" r:id="rId18"/>
-    <sheet name="y2023" sheetId="7" r:id="rId19"/>
+    <sheet name="冬季型まとめ" sheetId="22" r:id="rId1"/>
+    <sheet name="夏季型まとめ" sheetId="13" r:id="rId2"/>
+    <sheet name="年間型まとめ" sheetId="12" r:id="rId3"/>
+    <sheet name="夏季型" sheetId="9" r:id="rId4"/>
+    <sheet name="年間型" sheetId="8" r:id="rId5"/>
+    <sheet name="冬季型" sheetId="21" r:id="rId6"/>
+    <sheet name="winter_y2017" sheetId="14" r:id="rId7"/>
+    <sheet name="winter_y2018" sheetId="15" r:id="rId8"/>
+    <sheet name="winter_y2019" sheetId="16" r:id="rId9"/>
+    <sheet name="winter_y2020" sheetId="17" r:id="rId10"/>
+    <sheet name="winter_y2021" sheetId="18" r:id="rId11"/>
+    <sheet name="winter_y2022" sheetId="19" r:id="rId12"/>
+    <sheet name="winter_y2023" sheetId="20" r:id="rId13"/>
+    <sheet name="y2017" sheetId="1" r:id="rId14"/>
+    <sheet name="y2018" sheetId="2" r:id="rId15"/>
+    <sheet name="y2019" sheetId="3" r:id="rId16"/>
+    <sheet name="y2020" sheetId="4" r:id="rId17"/>
+    <sheet name="y2021" sheetId="5" r:id="rId18"/>
+    <sheet name="y2022" sheetId="6" r:id="rId19"/>
+    <sheet name="y2023" sheetId="7" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">夏季型!$A$1:$K$245</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">夏季型!$A$1:$K$245</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="79">
   <si>
     <t>業種別</t>
   </si>
@@ -280,6 +281,16 @@
   </si>
   <si>
     <t>組合あたり平均(単純平均</t>
+  </si>
+  <si>
+    <t>冬季型</t>
+    <rPh sb="0" eb="2">
+      <t>トウキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -938,6 +949,933 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="133"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="33"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.5038973809757042E-2"/>
+          <c:y val="0.15618292884266138"/>
+          <c:w val="0.86808086244973537"/>
+          <c:h val="0.78692421991084693"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>冬季型まとめ!$Q$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>計</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>冬季型まとめ!$A$4:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>冬季型まとめ!$Q$4:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9C8-464C-984D-603DACBF9BA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>冬季型まとめ!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>製造業</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>冬季型まとめ!$A$4:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>冬季型まとめ!$J$4:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C9C8-464C-984D-603DACBF9BA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>冬季型まとめ!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>商業流通</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>冬季型まとめ!$A$4:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>冬季型まとめ!$K$4:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C9C8-464C-984D-603DACBF9BA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>冬季型まとめ!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>交通運輸</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>冬季型まとめ!$A$4:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>冬季型まとめ!$L$4:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C9C8-464C-984D-603DACBF9BA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>冬季型まとめ!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>サービス・ホテル</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="FFCC00"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>冬季型まとめ!$A$4:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>冬季型まとめ!$M$4:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C9C8-464C-984D-603DACBF9BA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>冬季型まとめ!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>情報・出版</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="800080"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>冬季型まとめ!$A$4:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>冬季型まとめ!$N$4:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C9C8-464C-984D-603DACBF9BA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>冬季型まとめ!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>金融・保険</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="99CCFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>冬季型まとめ!$A$4:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>冬季型まとめ!$O$4:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C9C8-464C-984D-603DACBF9BA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>冬季型まとめ!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>その他</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>冬季型まとめ!$A$4:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>冬季型まとめ!$P$4:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C9C8-464C-984D-603DACBF9BA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="631730264"/>
+        <c:axId val="631731672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="631730264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000">
+                <a:latin typeface="ＭＳ ゴシック"/>
+                <a:ea typeface="ＭＳ ゴシック"/>
+                <a:cs typeface="ＭＳ ゴシック"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631731672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="631731672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000">
+                <a:latin typeface="ＭＳ ゴシック"/>
+                <a:ea typeface="ＭＳ ゴシック"/>
+                <a:cs typeface="ＭＳ ゴシック"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631730264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.3750594399176866E-2"/>
+          <c:y val="0.66881294370150235"/>
+          <c:w val="0.46028001641247657"/>
+          <c:h val="0.23543008089813436"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000">
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+              <a:cs typeface="ＭＳ ゴシック"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="6350">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:latin typeface="ＭＳ ゴシック"/>
+          <a:ea typeface="ＭＳ ゴシック"/>
+          <a:cs typeface="ＭＳ ゴシック"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1879,7 +2817,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2841,7 +3779,7 @@
         <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC9DA122-7D4F-4367-9417-40986A233482}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5288435-25C8-47DF-932B-AD038EA57E81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2961,6 +3899,142 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>503872</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>156209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>43815</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>116204</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC9DA122-7D4F-4367-9417-40986A233482}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.04062</cdr:x>
+      <cdr:y>0.10352</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.15153</cdr:x>
+      <cdr:y>0.19019</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13ACC18F-1782-3FB4-F155-E16BADF3DE7A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="279084" y="398145"/>
+          <a:ext cx="762000" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>（月数）</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.88493</cdr:x>
+      <cdr:y>0.93314</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51497C0A-EAA1-D19B-AC05-6F19E0A5AA10}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6079808" y="3589021"/>
+          <a:ext cx="790575" cy="257174"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>（年）</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>141922</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -2998,7 +4072,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -3390,216 +4464,216 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="R1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="S1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="T1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="U1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="V1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="W1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="X1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Y1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Z1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AA1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AB1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AC1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AD1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AE1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AF1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AG1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AH1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AI1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AJ1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AK1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AL1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AM1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AN1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AO1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AP1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AQ1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AR1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AS1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AT1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AU1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AV1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AW1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AX1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AY1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AZ1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="BA1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="BB1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="BC1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="BD1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="BE1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="BF1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="BG1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="BH1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="BI1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="BJ1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="BK1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="BL1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="BM1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="BN1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="BO1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="BP1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="BQ1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.45">
@@ -4019,276 +5093,68 @@
         <v>2017</v>
       </c>
       <c r="B4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!B$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>1303652</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!B$3,冬季型!$I:$I,冬季型まとめ!$A4)</f>
+        <v>67114</v>
       </c>
       <c r="C4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!C$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>36172</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!C$3,冬季型!$I:$I,冬季型まとめ!$A4)</f>
+        <v>17087</v>
       </c>
       <c r="D4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!D$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>113251</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!D$3,冬季型!$I:$I,冬季型まとめ!$A4)</f>
+        <v>1136</v>
       </c>
       <c r="E4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!E$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>283218</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!E$3,冬季型!$I:$I,冬季型まとめ!$A4)</f>
+        <v>243121</v>
       </c>
       <c r="F4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!F$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>23667</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!F$3,冬季型!$I:$I,冬季型まとめ!$A4)</f>
+        <v>773</v>
       </c>
       <c r="G4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!G$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!G$3,冬季型!$I:$I,冬季型まとめ!$A4)</f>
         <v>11705</v>
       </c>
       <c r="H4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!H$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>162131</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!H$3,冬季型!$I:$I,冬季型まとめ!$A4)</f>
+        <v>17154</v>
       </c>
       <c r="I4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!I$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>1933796</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!I$3,冬季型!$I:$I,冬季型まとめ!$A4)</f>
+        <v>358090</v>
       </c>
       <c r="J4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!J$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!J$3,冬季型!$I:$I,冬季型まとめ!$A4)</f>
+        <v>2.56</v>
+      </c>
+      <c r="K4">
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!K$3,冬季型!$I:$I,冬季型まとめ!$A4)</f>
+        <v>1.53</v>
+      </c>
+      <c r="L4">
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!L$3,冬季型!$I:$I,冬季型まとめ!$A4)</f>
+        <v>2.38</v>
+      </c>
+      <c r="M4">
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!M$3,冬季型!$I:$I,冬季型まとめ!$A4)</f>
+        <v>2.25</v>
+      </c>
+      <c r="N4">
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!N$3,冬季型!$I:$I,冬季型まとめ!$A4)</f>
         <v>2.5299999999999998</v>
       </c>
-      <c r="K4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!K$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>1.63</v>
-      </c>
-      <c r="L4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!L$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>2.6</v>
-      </c>
-      <c r="M4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!M$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>1.79</v>
-      </c>
-      <c r="N4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!N$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>2.73</v>
-      </c>
       <c r="O4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!O$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>2.1800000000000002</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!O$3,冬季型!$I:$I,冬季型まとめ!$A4)</f>
+        <v>2.2400000000000002</v>
       </c>
       <c r="P4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!P$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>2.11</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!P$3,冬季型!$I:$I,冬季型まとめ!$A4)</f>
+        <v>2.13</v>
       </c>
       <c r="Q4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!Q$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>2.37</v>
-      </c>
-      <c r="R4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!R$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>2884</v>
-      </c>
-      <c r="S4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!S$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>13227</v>
-      </c>
-      <c r="T4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!T$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>151442</v>
-      </c>
-      <c r="U4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!U$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>16391</v>
-      </c>
-      <c r="V4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!V$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>8821</v>
-      </c>
-      <c r="W4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!W$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>114</v>
-      </c>
-      <c r="X4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!X$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Y$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>5829</v>
-      </c>
-      <c r="Z4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Z$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>666162</v>
-      </c>
-      <c r="AA4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AA$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>1164</v>
-      </c>
-      <c r="AB4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AB$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>1717</v>
-      </c>
-      <c r="AC4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AC$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>14395</v>
-      </c>
-      <c r="AD4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AD$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>4965</v>
-      </c>
-      <c r="AE4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AE$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>149560</v>
-      </c>
-      <c r="AF4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AF$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>13304</v>
-      </c>
-      <c r="AG4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AG$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AH$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>35513</v>
-      </c>
-      <c r="AI4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AI$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>15678</v>
-      </c>
-      <c r="AJ4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AJ$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>26612</v>
-      </c>
-      <c r="AK4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AK$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>40158</v>
-      </c>
-      <c r="AL4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AL$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>165212</v>
-      </c>
-      <c r="AM4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AM$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>9768</v>
-      </c>
-      <c r="AN4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AN$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>35280</v>
-      </c>
-      <c r="AO4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AO$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>243121</v>
-      </c>
-      <c r="AP4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AP$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>15684</v>
-      </c>
-      <c r="AQ4">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AQ$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>231142</v>
-      </c>
-      <c r="AR4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AR$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>2.04</v>
-      </c>
-      <c r="AS4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AS$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="AT4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AT$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>2.17</v>
-      </c>
-      <c r="AU4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AU$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>1.73</v>
-      </c>
-      <c r="AV4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AV$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>2.23</v>
-      </c>
-      <c r="AW4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AW$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>1.7</v>
-      </c>
-      <c r="AX4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AX$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AY$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="AZ4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AZ$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>2.64</v>
-      </c>
-      <c r="BA4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BA$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="BB4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BB$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>1.19</v>
-      </c>
-      <c r="BC4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BC$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="BD4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BD$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>1.42</v>
-      </c>
-      <c r="BE4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BE$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>2.38</v>
-      </c>
-      <c r="BF4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BF$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>2.19</v>
-      </c>
-      <c r="BG4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BG$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BH$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="BI4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BI$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>2.86</v>
-      </c>
-      <c r="BJ4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BJ$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>1.79</v>
-      </c>
-      <c r="BK4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BK$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="BL4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BL$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>2.16</v>
-      </c>
-      <c r="BM4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BM$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="BN4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BN$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>2.7</v>
-      </c>
-      <c r="BO4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BO$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>1.75</v>
-      </c>
-      <c r="BP4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BP$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>2.58</v>
-      </c>
-      <c r="BQ4">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BQ$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
-        <v>2.44</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!Q$3,冬季型!$I:$I,冬季型まとめ!$A4)</f>
+        <v>2.27</v>
       </c>
     </row>
     <row r="5" spans="1:69" x14ac:dyDescent="0.45">
@@ -4297,276 +5163,68 @@
         <v>2018</v>
       </c>
       <c r="B5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!B$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>1159866</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!B$3,冬季型!$I:$I,冬季型まとめ!$A5)</f>
+        <v>790430</v>
       </c>
       <c r="C5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!C$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>48517</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!C$3,冬季型!$I:$I,冬季型まとめ!$A5)</f>
+        <v>114680</v>
       </c>
       <c r="D5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!D$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>138536</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!D$3,冬季型!$I:$I,冬季型まとめ!$A5)</f>
+        <v>14805</v>
       </c>
       <c r="E5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!E$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>274045</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!E$3,冬季型!$I:$I,冬季型まとめ!$A5)</f>
+        <v>257387</v>
       </c>
       <c r="F5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!F$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>16596</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!F$3,冬季型!$I:$I,冬季型まとめ!$A5)</f>
+        <v>347</v>
       </c>
       <c r="G5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!G$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!G$3,冬季型!$I:$I,冬季型まとめ!$A5)</f>
         <v>9946</v>
       </c>
       <c r="H5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!H$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>199983</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!H$3,冬季型!$I:$I,冬季型まとめ!$A5)</f>
+        <v>78670</v>
       </c>
       <c r="I5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!I$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>1847489</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!I$3,冬季型!$I:$I,冬季型まとめ!$A5)</f>
+        <v>1266265</v>
       </c>
       <c r="J5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!J$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.58</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!J$3,冬季型!$I:$I,冬季型まとめ!$A5)</f>
+        <v>2.61</v>
       </c>
       <c r="K5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!K$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>1.8</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!K$3,冬季型!$I:$I,冬季型まとめ!$A5)</f>
+        <v>2</v>
       </c>
       <c r="L5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!L$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.5</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!L$3,冬季型!$I:$I,冬季型まとめ!$A5)</f>
+        <v>1.97</v>
       </c>
       <c r="M5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!M$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!M$3,冬季型!$I:$I,冬季型まとめ!$A5)</f>
         <v>2.12</v>
       </c>
       <c r="N5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!N$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.9</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!N$3,冬季型!$I:$I,冬季型まとめ!$A5)</f>
+        <v>2.94</v>
       </c>
       <c r="O5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!O$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.17</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!O$3,冬季型!$I:$I,冬季型まとめ!$A5)</f>
+        <v>2.21</v>
       </c>
       <c r="P5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!P$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.16</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!P$3,冬季型!$I:$I,冬季型まとめ!$A5)</f>
+        <v>2.04</v>
       </c>
       <c r="Q5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!Q$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.44</v>
-      </c>
-      <c r="R5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!R$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>3116</v>
-      </c>
-      <c r="S5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!S$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>30024</v>
-      </c>
-      <c r="T5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!T$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>141401</v>
-      </c>
-      <c r="U5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!U$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>39360</v>
-      </c>
-      <c r="V5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!V$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>6830</v>
-      </c>
-      <c r="W5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!W$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!X$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Y$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>13348</v>
-      </c>
-      <c r="Z5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Z$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>576605</v>
-      </c>
-      <c r="AA5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AA$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>22641</v>
-      </c>
-      <c r="AB5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AB$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>1412</v>
-      </c>
-      <c r="AC5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AC$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>38790</v>
-      </c>
-      <c r="AD5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AD$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>1672</v>
-      </c>
-      <c r="AE5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AE$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>190926</v>
-      </c>
-      <c r="AF5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AF$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>14396</v>
-      </c>
-      <c r="AG5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AG$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2317</v>
-      </c>
-      <c r="AH5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AH$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>22682</v>
-      </c>
-      <c r="AI5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AI$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>15270</v>
-      </c>
-      <c r="AJ5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AJ$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>25268</v>
-      </c>
-      <c r="AK5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AK$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>41571</v>
-      </c>
-      <c r="AL5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AL$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>165874</v>
-      </c>
-      <c r="AM5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AM$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AN$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>45045</v>
-      </c>
-      <c r="AO5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AO$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>243998</v>
-      </c>
-      <c r="AP5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AP$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>31127</v>
-      </c>
-      <c r="AQ5">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AQ$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>107440</v>
-      </c>
-      <c r="AR5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AR$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="AS5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AS$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.71</v>
-      </c>
-      <c r="AT5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AT$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.12</v>
-      </c>
-      <c r="AU5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AU$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.7</v>
-      </c>
-      <c r="AV5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AV$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="AW5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AW$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AX$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AY$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.39</v>
-      </c>
-      <c r="AZ5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AZ$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.65</v>
-      </c>
-      <c r="BA5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BA$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.19</v>
-      </c>
-      <c r="BB5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BB$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>1.28</v>
-      </c>
-      <c r="BC5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BC$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="BD5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BD$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>1.53</v>
-      </c>
-      <c r="BE5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BE$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.57</v>
-      </c>
-      <c r="BF5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BF$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.21</v>
-      </c>
-      <c r="BG5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BG$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.5</v>
-      </c>
-      <c r="BH5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BH$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="BI5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BI$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.85</v>
-      </c>
-      <c r="BJ5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BJ$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>1.85</v>
-      </c>
-      <c r="BK5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BK$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="BL5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BL$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.14</v>
-      </c>
-      <c r="BM5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BM$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>0</v>
-      </c>
-      <c r="BN5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BN$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.63</v>
-      </c>
-      <c r="BO5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BO$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.15</v>
-      </c>
-      <c r="BP5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BP$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.68</v>
-      </c>
-      <c r="BQ5">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BQ$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
-        <v>2.42</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!Q$3,冬季型!$I:$I,冬季型まとめ!$A5)</f>
+        <v>2.41</v>
       </c>
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.45">
@@ -4575,276 +5233,64 @@
         <v>2019</v>
       </c>
       <c r="B6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!B$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>986640</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!B$3,冬季型!$I:$I,冬季型まとめ!$A6)</f>
+        <v>360326</v>
       </c>
       <c r="C6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!C$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>58432</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!C$3,冬季型!$I:$I,冬季型まとめ!$A6)</f>
+        <v>69751</v>
       </c>
       <c r="D6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!D$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>67547</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!D$3,冬季型!$I:$I,冬季型まとめ!$A6)</f>
+        <v>851</v>
       </c>
       <c r="E6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!E$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>268212</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!E$3,冬季型!$I:$I,冬季型まとめ!$A6)</f>
+        <v>252628</v>
       </c>
       <c r="F6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!F$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>13668</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!F$3,冬季型!$I:$I,冬季型まとめ!$A6)</f>
+        <v>0</v>
       </c>
       <c r="G6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!G$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!G$3,冬季型!$I:$I,冬季型まとめ!$A6)</f>
         <v>10027</v>
       </c>
       <c r="H6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!H$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>184361</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!H$3,冬季型!$I:$I,冬季型まとめ!$A6)</f>
+        <v>45513</v>
       </c>
       <c r="I6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!I$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>1588887</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!I$3,冬季型!$I:$I,冬季型まとめ!$A6)</f>
+        <v>739096</v>
       </c>
       <c r="J6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!J$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2.62</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!J$3,冬季型!$I:$I,冬季型まとめ!$A6)</f>
+        <v>2.5099999999999998</v>
       </c>
       <c r="K6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!K$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>1.59</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!K$3,冬季型!$I:$I,冬季型まとめ!$A6)</f>
+        <v>2.06</v>
       </c>
       <c r="L6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!L$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2.38</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!L$3,冬季型!$I:$I,冬季型まとめ!$A6)</f>
+        <v>1.9</v>
       </c>
       <c r="M6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!M$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2.11</v>
-      </c>
-      <c r="N6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!N$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>3.14</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!M$3,冬季型!$I:$I,冬季型まとめ!$A6)</f>
+        <v>2.13</v>
       </c>
       <c r="O6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!O$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2.19</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!O$3,冬季型!$I:$I,冬季型まとめ!$A6)</f>
+        <v>2.23</v>
       </c>
       <c r="P6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!P$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2.25</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!P$3,冬季型!$I:$I,冬季型まとめ!$A6)</f>
+        <v>2.06</v>
       </c>
       <c r="Q6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!Q$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="R6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!R$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>3363</v>
-      </c>
-      <c r="S6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!S$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>29814</v>
-      </c>
-      <c r="T6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!T$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>138429</v>
-      </c>
-      <c r="U6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!U$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>15850</v>
-      </c>
-      <c r="V6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!V$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>6664</v>
-      </c>
-      <c r="W6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!W$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!X$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Y$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>7806</v>
-      </c>
-      <c r="Z6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Z$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>636943</v>
-      </c>
-      <c r="AA6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AA$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>22700</v>
-      </c>
-      <c r="AB6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AB$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>215</v>
-      </c>
-      <c r="AC6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AC$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>30768</v>
-      </c>
-      <c r="AD6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AD$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2590</v>
-      </c>
-      <c r="AE6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AE$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>72709</v>
-      </c>
-      <c r="AF6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AF$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>12307</v>
-      </c>
-      <c r="AG6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AG$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>1960</v>
-      </c>
-      <c r="AH6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AH$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>7661</v>
-      </c>
-      <c r="AI6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AI$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>12124</v>
-      </c>
-      <c r="AJ6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AJ$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>21398</v>
-      </c>
-      <c r="AK6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AK$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>40716</v>
-      </c>
-      <c r="AL6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AL$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>125797</v>
-      </c>
-      <c r="AM6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AM$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AN$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>41146</v>
-      </c>
-      <c r="AO6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AO$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>243945</v>
-      </c>
-      <c r="AP6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AP$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>30438</v>
-      </c>
-      <c r="AQ6">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AQ$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>77304</v>
-      </c>
-      <c r="AR6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AR$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="AS6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AS$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2.65</v>
-      </c>
-      <c r="AT6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AT$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2.21</v>
-      </c>
-      <c r="AU6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AU$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>1.99</v>
-      </c>
-      <c r="AV6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AV$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2.25</v>
-      </c>
-      <c r="AW6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AW$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AX$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AY$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="AZ6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AZ$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2.7</v>
-      </c>
-      <c r="BA6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BA$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="BB6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BB$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2.12</v>
-      </c>
-      <c r="BC6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BC$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2</v>
-      </c>
-      <c r="BD6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BD$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>1.6</v>
-      </c>
-      <c r="BE6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BE$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2.61</v>
-      </c>
-      <c r="BF6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BF$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2.06</v>
-      </c>
-      <c r="BG6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BG$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2.82</v>
-      </c>
-      <c r="BH6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BH$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2.39</v>
-      </c>
-      <c r="BI6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BI$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2.86</v>
-      </c>
-      <c r="BJ6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BJ$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>1.7</v>
-      </c>
-      <c r="BK6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BK$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2.54</v>
-      </c>
-      <c r="BL6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BL$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>1.99</v>
-      </c>
-      <c r="BM6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BM$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BN$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2.68</v>
-      </c>
-      <c r="BO6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BO$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2.15</v>
-      </c>
-      <c r="BP6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BP$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2.69</v>
-      </c>
-      <c r="BQ6">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BQ$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
-        <v>2.46</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!Q$3,冬季型!$I:$I,冬季型まとめ!$A6)</f>
+        <v>2.31</v>
       </c>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.45">
@@ -4853,276 +5299,64 @@
         <v>2020</v>
       </c>
       <c r="B7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!B$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>877309</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!B$3,冬季型!$I:$I,冬季型まとめ!$A7)</f>
+        <v>491847</v>
       </c>
       <c r="C7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!C$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>126706</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!C$3,冬季型!$I:$I,冬季型まとめ!$A7)</f>
+        <v>72444</v>
       </c>
       <c r="D7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!D$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>133738</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!D$3,冬季型!$I:$I,冬季型まとめ!$A7)</f>
+        <v>53414</v>
       </c>
       <c r="E7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!E$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>264118</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!E$3,冬季型!$I:$I,冬季型まとめ!$A7)</f>
+        <v>245425</v>
       </c>
       <c r="F7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!F$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>20293</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!F$3,冬季型!$I:$I,冬季型まとめ!$A7)</f>
+        <v>0</v>
       </c>
       <c r="G7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!G$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!G$3,冬季型!$I:$I,冬季型まとめ!$A7)</f>
         <v>10060</v>
       </c>
       <c r="H7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!H$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>205342</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!H$3,冬季型!$I:$I,冬季型まとめ!$A7)</f>
+        <v>24851</v>
       </c>
       <c r="I7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!I$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>1637566</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!I$3,冬季型!$I:$I,冬季型まとめ!$A7)</f>
+        <v>898041</v>
       </c>
       <c r="J7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!J$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>2.37</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!J$3,冬季型!$I:$I,冬季型まとめ!$A7)</f>
+        <v>2.4700000000000002</v>
       </c>
       <c r="K7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!K$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>1.86</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!K$3,冬季型!$I:$I,冬季型まとめ!$A7)</f>
+        <v>1.79</v>
       </c>
       <c r="L7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!L$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>1.83</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!L$3,冬季型!$I:$I,冬季型まとめ!$A7)</f>
+        <v>1.61</v>
       </c>
       <c r="M7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!M$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>2.08</v>
-      </c>
-      <c r="N7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!N$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>2.08</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!M$3,冬季型!$I:$I,冬季型まとめ!$A7)</f>
+        <v>2.14</v>
       </c>
       <c r="O7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!O$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>2.2000000000000002</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!O$3,冬季型!$I:$I,冬季型まとめ!$A7)</f>
+        <v>2.2400000000000002</v>
       </c>
       <c r="P7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!P$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>2.27</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!P$3,冬季型!$I:$I,冬季型まとめ!$A7)</f>
+        <v>2.06</v>
       </c>
       <c r="Q7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!Q$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="R7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!R$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>3420</v>
-      </c>
-      <c r="S7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!S$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>32796</v>
-      </c>
-      <c r="T7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!T$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>132784</v>
-      </c>
-      <c r="U7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!U$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>50118</v>
-      </c>
-      <c r="V7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!V$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>6640</v>
-      </c>
-      <c r="W7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!W$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!X$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Y$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>21892</v>
-      </c>
-      <c r="Z7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Z$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>469282</v>
-      </c>
-      <c r="AA7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AA$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>22580</v>
-      </c>
-      <c r="AB7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AB$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>2506</v>
-      </c>
-      <c r="AC7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AC$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>41345</v>
-      </c>
-      <c r="AD7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AD$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>3206</v>
-      </c>
-      <c r="AE7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AE$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AF$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>12718</v>
-      </c>
-      <c r="AG7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AG$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>1617</v>
-      </c>
-      <c r="AH7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AH$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>22119</v>
-      </c>
-      <c r="AI7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AI$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>15654</v>
-      </c>
-      <c r="AJ7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AJ$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>19314</v>
-      </c>
-      <c r="AK7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AK$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>43172</v>
-      </c>
-      <c r="AL7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AL$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>264712</v>
-      </c>
-      <c r="AM7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AM$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AN$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>41309</v>
-      </c>
-      <c r="AO7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AO$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>242758</v>
-      </c>
-      <c r="AP7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AP$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>14437</v>
-      </c>
-      <c r="AQ7">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AQ$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>120193</v>
-      </c>
-      <c r="AR7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AR$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="AS7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AS$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>2.59</v>
-      </c>
-      <c r="AT7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AT$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>2.33</v>
-      </c>
-      <c r="AU7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AU$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>2.16</v>
-      </c>
-      <c r="AV7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AV$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!Q$3,冬季型!$I:$I,冬季型まとめ!$A7)</f>
         <v>2.2599999999999998</v>
-      </c>
-      <c r="AW7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AW$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AX$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AY$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>2.09</v>
-      </c>
-      <c r="AZ7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AZ$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="BA7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BA$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>2.31</v>
-      </c>
-      <c r="BB7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BB$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>1.57</v>
-      </c>
-      <c r="BC7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BC$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>1.17</v>
-      </c>
-      <c r="BD7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BD$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>1.66</v>
-      </c>
-      <c r="BE7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BE$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BF$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>2.09</v>
-      </c>
-      <c r="BG7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BG$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>2.77</v>
-      </c>
-      <c r="BH7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BH$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>2.54</v>
-      </c>
-      <c r="BI7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BI$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>2.61</v>
-      </c>
-      <c r="BJ7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BJ$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>1.31</v>
-      </c>
-      <c r="BK7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BK$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="BL7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BL$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>1.99</v>
-      </c>
-      <c r="BM7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BM$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BN$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>2.57</v>
-      </c>
-      <c r="BO7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BO$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>2.15</v>
-      </c>
-      <c r="BP7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BP$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>2.8</v>
-      </c>
-      <c r="BQ7">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BQ$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
-        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.45">
@@ -5131,276 +5365,64 @@
         <v>2021</v>
       </c>
       <c r="B8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!B$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>879375</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!B$3,冬季型!$I:$I,冬季型まとめ!$A8)</f>
+        <v>732037</v>
       </c>
       <c r="C8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!C$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>139453</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!C$3,冬季型!$I:$I,冬季型まとめ!$A8)</f>
+        <v>99060</v>
       </c>
       <c r="D8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!D$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>176205</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!D$3,冬季型!$I:$I,冬季型まとめ!$A8)</f>
+        <v>28308</v>
       </c>
       <c r="E8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!E$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>8513</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!E$3,冬季型!$I:$I,冬季型まとめ!$A8)</f>
+        <v>244965</v>
       </c>
       <c r="F8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!F$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!F$3,冬季型!$I:$I,冬季型まとめ!$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!G$3,冬季型!$I:$I,冬季型まとめ!$A8)</f>
         <v>12716</v>
       </c>
-      <c r="G8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!G$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>11682</v>
-      </c>
       <c r="H8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!H$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>178255</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!H$3,冬季型!$I:$I,冬季型まとめ!$A8)</f>
+        <v>34330</v>
       </c>
       <c r="I8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!I$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>1406199</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!I$3,冬季型!$I:$I,冬季型まとめ!$A8)</f>
+        <v>1151416</v>
       </c>
       <c r="J8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!J$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>2.38</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!J$3,冬季型!$I:$I,冬季型まとめ!$A8)</f>
+        <v>2.42</v>
       </c>
       <c r="K8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!K$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>1.73</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!K$3,冬季型!$I:$I,冬季型まとめ!$A8)</f>
+        <v>2.12</v>
       </c>
       <c r="L8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!L$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>1.51</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!L$3,冬季型!$I:$I,冬季型まとめ!$A8)</f>
+        <v>1.69</v>
       </c>
       <c r="M8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!M$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>0.89</v>
-      </c>
-      <c r="N8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!N$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>2.27</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!M$3,冬季型!$I:$I,冬季型まとめ!$A8)</f>
+        <v>2.14</v>
       </c>
       <c r="O8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!O$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>2.4900000000000002</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!O$3,冬季型!$I:$I,冬季型まとめ!$A8)</f>
+        <v>2.23</v>
       </c>
       <c r="P8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!P$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>2.27</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!P$3,冬季型!$I:$I,冬季型まとめ!$A8)</f>
+        <v>2.09</v>
       </c>
       <c r="Q8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!Q$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="R8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!R$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>3737</v>
-      </c>
-      <c r="S8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!S$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>34112</v>
-      </c>
-      <c r="T8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!T$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>120639</v>
-      </c>
-      <c r="U8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!U$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>22959</v>
-      </c>
-      <c r="V8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!V$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>8979</v>
-      </c>
-      <c r="W8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!W$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!X$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Y$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>14255</v>
-      </c>
-      <c r="Z8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Z$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>508940</v>
-      </c>
-      <c r="AA8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AA$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>23123</v>
-      </c>
-      <c r="AB8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AB$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>32684</v>
-      </c>
-      <c r="AC8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AC$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>32186</v>
-      </c>
-      <c r="AD8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AD$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>1409</v>
-      </c>
-      <c r="AE8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AE$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AF$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>12733</v>
-      </c>
-      <c r="AG8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AG$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>2550</v>
-      </c>
-      <c r="AH8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AH$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>12659</v>
-      </c>
-      <c r="AI8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AI$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>14830</v>
-      </c>
-      <c r="AJ8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AJ$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>4377</v>
-      </c>
-      <c r="AK8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AK$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>43138</v>
-      </c>
-      <c r="AL8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AL$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>249302</v>
-      </c>
-      <c r="AM8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AM$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AN$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>73738</v>
-      </c>
-      <c r="AO8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AO$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AP$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>16960</v>
-      </c>
-      <c r="AQ8">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AQ$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>125613</v>
-      </c>
-      <c r="AR8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AR$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>2.34</v>
-      </c>
-      <c r="AS8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AS$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>2.62</v>
-      </c>
-      <c r="AT8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AT$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>2.29</v>
-      </c>
-      <c r="AU8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AU$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>1.8</v>
-      </c>
-      <c r="AV8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AV$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>2.25</v>
-      </c>
-      <c r="AW8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AW$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AX$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AY$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>2.64</v>
-      </c>
-      <c r="AZ8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AZ$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>2.44</v>
-      </c>
-      <c r="BA8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BA$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="BB8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BB$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>1.6</v>
-      </c>
-      <c r="BC8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BC$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>0.41</v>
-      </c>
-      <c r="BD8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BD$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>1.59</v>
-      </c>
-      <c r="BE8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BE$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BF$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>2.11</v>
-      </c>
-      <c r="BG8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BG$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="BH8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BH$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>2.23</v>
-      </c>
-      <c r="BI8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BI$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>2.76</v>
-      </c>
-      <c r="BJ8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BJ$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>0.87</v>
-      </c>
-      <c r="BK8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BK$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>2.41</v>
-      </c>
-      <c r="BL8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BL$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>1.93</v>
-      </c>
-      <c r="BM8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BM$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BN$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>1.74</v>
-      </c>
-      <c r="BO8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BO$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>0</v>
-      </c>
-      <c r="BP8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BP$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>2.52</v>
-      </c>
-      <c r="BQ8">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BQ$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
-        <v>2.27</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!Q$3,冬季型!$I:$I,冬季型まとめ!$A8)</f>
+        <v>2.31</v>
       </c>
     </row>
     <row r="9" spans="1:69" x14ac:dyDescent="0.45">
@@ -5409,276 +5431,64 @@
         <v>2022</v>
       </c>
       <c r="B9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!B$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>1076404</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!B$3,冬季型!$I:$I,冬季型まとめ!$A9)</f>
+        <v>811685</v>
       </c>
       <c r="C9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!C$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>98470</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!C$3,冬季型!$I:$I,冬季型まとめ!$A9)</f>
+        <v>104913</v>
       </c>
       <c r="D9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!D$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>171229</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!D$3,冬季型!$I:$I,冬季型まとめ!$A9)</f>
+        <v>37936</v>
       </c>
       <c r="E9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!E$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>264793</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!E$3,冬季型!$I:$I,冬季型まとめ!$A9)</f>
+        <v>245349</v>
       </c>
       <c r="F9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!F$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>13000</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!F$3,冬季型!$I:$I,冬季型まとめ!$A9)</f>
+        <v>0</v>
       </c>
       <c r="G9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!G$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!G$3,冬季型!$I:$I,冬季型まとめ!$A9)</f>
         <v>11216</v>
       </c>
       <c r="H9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!H$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>185645</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!H$3,冬季型!$I:$I,冬季型まとめ!$A9)</f>
+        <v>34830</v>
       </c>
       <c r="I9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!I$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>1820757</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!I$3,冬季型!$I:$I,冬季型まとめ!$A9)</f>
+        <v>1245929</v>
       </c>
       <c r="J9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!J$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!J$3,冬季型!$I:$I,冬季型まとめ!$A9)</f>
         <v>2.56</v>
       </c>
       <c r="K9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!K$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>1.81</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!K$3,冬季型!$I:$I,冬季型まとめ!$A9)</f>
+        <v>2.04</v>
       </c>
       <c r="L9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!L$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>1.68</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!L$3,冬季型!$I:$I,冬季型まとめ!$A9)</f>
+        <v>1.92</v>
       </c>
       <c r="M9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!M$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>2.04</v>
-      </c>
-      <c r="N9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!N$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>2.57</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!M$3,冬季型!$I:$I,冬季型まとめ!$A9)</f>
+        <v>2.11</v>
       </c>
       <c r="O9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!O$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>2.25</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!O$3,冬季型!$I:$I,冬季型まとめ!$A9)</f>
+        <v>2.2200000000000002</v>
       </c>
       <c r="P9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!P$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>2.2799999999999998</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!P$3,冬季型!$I:$I,冬季型まとめ!$A9)</f>
+        <v>2.0299999999999998</v>
       </c>
       <c r="Q9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!Q$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>2.33</v>
-      </c>
-      <c r="R9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!R$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>4348</v>
-      </c>
-      <c r="S9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!S$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>34546</v>
-      </c>
-      <c r="T9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!T$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>123534</v>
-      </c>
-      <c r="U9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!U$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>58139</v>
-      </c>
-      <c r="V9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!V$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>6868</v>
-      </c>
-      <c r="W9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!W$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>104</v>
-      </c>
-      <c r="X9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!X$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>508</v>
-      </c>
-      <c r="Y9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Y$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>7493</v>
-      </c>
-      <c r="Z9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Z$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>596645</v>
-      </c>
-      <c r="AA9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AA$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>21222</v>
-      </c>
-      <c r="AB9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AB$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>21609</v>
-      </c>
-      <c r="AC9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AC$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>36809</v>
-      </c>
-      <c r="AD9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AD$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>2780</v>
-      </c>
-      <c r="AE9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AE$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AF$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>12833</v>
-      </c>
-      <c r="AG9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AG$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>2766</v>
-      </c>
-      <c r="AH9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AH$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>24427</v>
-      </c>
-      <c r="AI9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AI$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>14794</v>
-      </c>
-      <c r="AJ9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AJ$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>23899</v>
-      </c>
-      <c r="AK9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AK$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>42662</v>
-      </c>
-      <c r="AL9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AL$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>169752</v>
-      </c>
-      <c r="AM9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AM$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AN$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>72248</v>
-      </c>
-      <c r="AO9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AO$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>238973</v>
-      </c>
-      <c r="AP9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AP$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>21077</v>
-      </c>
-      <c r="AQ9">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AQ$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>234334</v>
-      </c>
-      <c r="AR9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AR$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>2.23</v>
-      </c>
-      <c r="AS9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AS$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>2.63</v>
-      </c>
-      <c r="AT9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AT$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="AU9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AU$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="AV9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AV$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>2.27</v>
-      </c>
-      <c r="AW9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AW$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>1.55</v>
-      </c>
-      <c r="AX9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AX$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AY9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AY$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>2.72</v>
-      </c>
-      <c r="AZ9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AZ$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>2.67</v>
-      </c>
-      <c r="BA9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BA$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="BB9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BB$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>1.45</v>
-      </c>
-      <c r="BC9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BC$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>1.2</v>
-      </c>
-      <c r="BD9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BD$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>1.39</v>
-      </c>
-      <c r="BE9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BE$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="BF9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BF$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>2.17</v>
-      </c>
-      <c r="BG9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BG$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>2.54</v>
-      </c>
-      <c r="BH9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BH$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>2.61</v>
-      </c>
-      <c r="BI9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BI$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>2.86</v>
-      </c>
-      <c r="BJ9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BJ$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>1.28</v>
-      </c>
-      <c r="BK9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BK$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>2.48</v>
-      </c>
-      <c r="BL9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BL$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>1.89</v>
-      </c>
-      <c r="BM9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BM$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="BN9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BN$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>1.82</v>
-      </c>
-      <c r="BO9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BO$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>2.15</v>
-      </c>
-      <c r="BP9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BP$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>2.62</v>
-      </c>
-      <c r="BQ9">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BQ$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
-        <v>2.4</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!Q$3,冬季型!$I:$I,冬季型まとめ!$A9)</f>
+        <v>2.39</v>
       </c>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.45">
@@ -5687,276 +5497,64 @@
         <v>2023</v>
       </c>
       <c r="B10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!B$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>1016988</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!B$3,冬季型!$I:$I,冬季型まとめ!$A10)</f>
+        <v>693565</v>
       </c>
       <c r="C10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!C$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>155035</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!C$3,冬季型!$I:$I,冬季型まとめ!$A10)</f>
+        <v>9556</v>
       </c>
       <c r="D10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!D$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>132937</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!D$3,冬季型!$I:$I,冬季型まとめ!$A10)</f>
+        <v>32157</v>
       </c>
       <c r="E10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!E$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>279222</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!E$3,冬季型!$I:$I,冬季型まとめ!$A10)</f>
+        <v>265390</v>
       </c>
       <c r="F10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!F$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>12797</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!F$3,冬季型!$I:$I,冬季型まとめ!$A10)</f>
+        <v>0</v>
       </c>
       <c r="G10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!G$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!G$3,冬季型!$I:$I,冬季型まとめ!$A10)</f>
         <v>10517</v>
       </c>
       <c r="H10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!H$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>169975</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!H$3,冬季型!$I:$I,冬季型まとめ!$A10)</f>
+        <v>1681</v>
       </c>
       <c r="I10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!I$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>1777471</v>
+        <f>SUMIFS(冬季型!$C:$C,冬季型!$A:$A,冬季型まとめ!I$3,冬季型!$I:$I,冬季型まとめ!$A10)</f>
+        <v>1012866</v>
       </c>
       <c r="J10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!J$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.5299999999999998</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!J$3,冬季型!$I:$I,冬季型まとめ!$A10)</f>
+        <v>2.57</v>
       </c>
       <c r="K10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!K$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>1.72</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!K$3,冬季型!$I:$I,冬季型まとめ!$A10)</f>
+        <v>2.29</v>
       </c>
       <c r="L10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!L$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.0699999999999998</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!L$3,冬季型!$I:$I,冬季型まとめ!$A10)</f>
+        <v>1.78</v>
       </c>
       <c r="M10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!M$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.13</v>
-      </c>
-      <c r="N10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!N$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.72</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!M$3,冬季型!$I:$I,冬季型まとめ!$A10)</f>
+        <v>2.08</v>
       </c>
       <c r="O10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!O$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.2000000000000002</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!O$3,冬季型!$I:$I,冬季型まとめ!$A10)</f>
+        <v>2.23</v>
       </c>
       <c r="P10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!P$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.2599999999999998</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!P$3,冬季型!$I:$I,冬季型まとめ!$A10)</f>
+        <v>1.93</v>
       </c>
       <c r="Q10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!Q$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.34</v>
-      </c>
-      <c r="R10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!R$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>3704</v>
-      </c>
-      <c r="S10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!S$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>33951</v>
-      </c>
-      <c r="T10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!T$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>126937</v>
-      </c>
-      <c r="U10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!U$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>45972</v>
-      </c>
-      <c r="V10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!V$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>6813</v>
-      </c>
-      <c r="W10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!W$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!X$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Y$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>5782</v>
-      </c>
-      <c r="Z10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Z$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>501717</v>
-      </c>
-      <c r="AA10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AA$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>21622</v>
-      </c>
-      <c r="AB10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AB$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>1558</v>
-      </c>
-      <c r="AC10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AC$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>43106</v>
-      </c>
-      <c r="AD10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AD$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2131</v>
-      </c>
-      <c r="AE10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AE$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AF$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>12324</v>
-      </c>
-      <c r="AG10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AG$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>1804</v>
-      </c>
-      <c r="AH10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AH$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>22302</v>
-      </c>
-      <c r="AI10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AI$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>14535</v>
-      </c>
-      <c r="AJ10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AJ$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>38247</v>
-      </c>
-      <c r="AK10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AK$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>41100</v>
-      </c>
-      <c r="AL10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AL$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>262577</v>
-      </c>
-      <c r="AM10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AM$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AN$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>47071</v>
-      </c>
-      <c r="AO10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AO$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>238973</v>
-      </c>
-      <c r="AP10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AP$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>27389</v>
-      </c>
-      <c r="AQ10">
-        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AQ$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>230127</v>
-      </c>
-      <c r="AR10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AR$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.06</v>
-      </c>
-      <c r="AS10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AS$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="AT10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AT$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="AU10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AU$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.33</v>
-      </c>
-      <c r="AV10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AV$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.27</v>
-      </c>
-      <c r="AW10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AW$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>1.7</v>
-      </c>
-      <c r="AX10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AX$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AY$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.54</v>
-      </c>
-      <c r="AZ10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AZ$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.61</v>
-      </c>
-      <c r="BA10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BA$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.23</v>
-      </c>
-      <c r="BB10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BB$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="BC10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BC$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.02</v>
-      </c>
-      <c r="BD10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BD$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>1.49</v>
-      </c>
-      <c r="BE10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BE$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>0</v>
-      </c>
-      <c r="BF10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BF$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.39</v>
-      </c>
-      <c r="BG10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BG$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.98</v>
-      </c>
-      <c r="BH10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BH$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.67</v>
-      </c>
-      <c r="BI10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BI$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.87</v>
-      </c>
-      <c r="BJ10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BJ$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.02</v>
-      </c>
-      <c r="BK10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BK$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.54</v>
-      </c>
-      <c r="BL10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BL$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>1.95</v>
-      </c>
-      <c r="BM10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BM$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>0</v>
-      </c>
-      <c r="BN10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BN$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.39</v>
-      </c>
-      <c r="BO10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BO$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.15</v>
-      </c>
-      <c r="BP10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BP$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.93</v>
-      </c>
-      <c r="BQ10">
-        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BQ$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
-        <v>2.4300000000000002</v>
+        <f>SUMIFS(冬季型!$D:$D,冬季型!$A:$A,冬季型まとめ!Q$3,冬季型!$I:$I,冬季型まとめ!$A10)</f>
+        <v>2.41</v>
       </c>
     </row>
   </sheetData>
@@ -5967,6 +5565,1021 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="A4:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>857</v>
+      </c>
+      <c r="C4" s="1">
+        <v>491847</v>
+      </c>
+      <c r="D4">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E4">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F4">
+        <v>2.17</v>
+      </c>
+      <c r="G4">
+        <v>2.31</v>
+      </c>
+      <c r="I4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>62</v>
+      </c>
+      <c r="C5" s="1">
+        <v>72444</v>
+      </c>
+      <c r="D5">
+        <v>1.79</v>
+      </c>
+      <c r="E5">
+        <v>2.06</v>
+      </c>
+      <c r="F5">
+        <v>1.66</v>
+      </c>
+      <c r="G5">
+        <v>1.78</v>
+      </c>
+      <c r="I5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>53414</v>
+      </c>
+      <c r="D6">
+        <v>1.61</v>
+      </c>
+      <c r="E6">
+        <v>1.9</v>
+      </c>
+      <c r="F6">
+        <v>1.81</v>
+      </c>
+      <c r="G6">
+        <v>1.73</v>
+      </c>
+      <c r="I6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>245425</v>
+      </c>
+      <c r="D7">
+        <v>2.14</v>
+      </c>
+      <c r="E7">
+        <v>2.13</v>
+      </c>
+      <c r="F7">
+        <v>1.64</v>
+      </c>
+      <c r="G7">
+        <v>1.33</v>
+      </c>
+      <c r="I7">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10060</v>
+      </c>
+      <c r="D8">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E8">
+        <v>2.23</v>
+      </c>
+      <c r="F8">
+        <v>2.34</v>
+      </c>
+      <c r="G8">
+        <v>2.33</v>
+      </c>
+      <c r="I8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>68</v>
+      </c>
+      <c r="C9" s="1">
+        <v>24851</v>
+      </c>
+      <c r="D9">
+        <v>2.06</v>
+      </c>
+      <c r="E9">
+        <v>2.06</v>
+      </c>
+      <c r="F9">
+        <v>1.98</v>
+      </c>
+      <c r="G9">
+        <v>1.96</v>
+      </c>
+      <c r="I9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1017</v>
+      </c>
+      <c r="C10" s="1">
+        <v>898041</v>
+      </c>
+      <c r="D10">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E10">
+        <v>2.31</v>
+      </c>
+      <c r="F10">
+        <v>2.13</v>
+      </c>
+      <c r="G10">
+        <v>2.21</v>
+      </c>
+      <c r="I10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>195</v>
+      </c>
+      <c r="C13" s="1">
+        <v>113707</v>
+      </c>
+      <c r="D13">
+        <v>1.89</v>
+      </c>
+      <c r="E13">
+        <v>2.06</v>
+      </c>
+      <c r="F13">
+        <v>1.87</v>
+      </c>
+      <c r="G13">
+        <v>1.89</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>738</v>
+      </c>
+      <c r="C14" s="1">
+        <v>453493</v>
+      </c>
+      <c r="D14">
+        <v>2.48</v>
+      </c>
+      <c r="F14">
+        <v>2.19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>242758</v>
+      </c>
+      <c r="D15">
+        <v>2.15</v>
+      </c>
+      <c r="E15">
+        <v>2.15</v>
+      </c>
+      <c r="F15">
+        <v>2.15</v>
+      </c>
+      <c r="G15">
+        <v>2.15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>496</v>
+      </c>
+      <c r="D16">
+        <v>2.1</v>
+      </c>
+      <c r="F16">
+        <v>2.1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>26363</v>
+      </c>
+      <c r="D17">
+        <v>1.68</v>
+      </c>
+      <c r="E17">
+        <v>1.5</v>
+      </c>
+      <c r="F17">
+        <v>1.68</v>
+      </c>
+      <c r="G17">
+        <v>1.5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1">
+        <v>11639</v>
+      </c>
+      <c r="D18">
+        <v>2.67</v>
+      </c>
+      <c r="E18">
+        <v>2.54</v>
+      </c>
+      <c r="F18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G18">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>24800</v>
+      </c>
+      <c r="D19">
+        <v>1.5</v>
+      </c>
+      <c r="F19">
+        <v>1.5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4268</v>
+      </c>
+      <c r="D20">
+        <v>1.78</v>
+      </c>
+      <c r="E20">
+        <v>1.61</v>
+      </c>
+      <c r="F20">
+        <v>1.75</v>
+      </c>
+      <c r="G20">
+        <v>1.33</v>
+      </c>
+      <c r="H20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>650</v>
+      </c>
+      <c r="D21">
+        <v>1.5</v>
+      </c>
+      <c r="F21">
+        <v>1.5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2289</v>
+      </c>
+      <c r="D22">
+        <v>1.73</v>
+      </c>
+      <c r="F22">
+        <v>1.5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7518</v>
+      </c>
+      <c r="D23">
+        <v>2.69</v>
+      </c>
+      <c r="E23">
+        <v>2.72</v>
+      </c>
+      <c r="F23">
+        <v>2.36</v>
+      </c>
+      <c r="G23">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6640</v>
+      </c>
+      <c r="D24">
+        <v>2.31</v>
+      </c>
+      <c r="E24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F24">
+        <v>2.29</v>
+      </c>
+      <c r="G24">
+        <v>2.27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3420</v>
+      </c>
+      <c r="D25">
+        <v>2.1</v>
+      </c>
+      <c r="E25">
+        <v>2.1</v>
+      </c>
+      <c r="F25">
+        <v>2.5</v>
+      </c>
+      <c r="G25">
+        <v>2.5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>481</v>
+      </c>
+      <c r="C28" s="1">
+        <v>290844</v>
+      </c>
+      <c r="D28" s="1">
+        <v>675773</v>
+      </c>
+      <c r="E28" s="1">
+        <v>750210</v>
+      </c>
+      <c r="F28" s="1">
+        <v>562429</v>
+      </c>
+      <c r="G28" s="1">
+        <v>618433</v>
+      </c>
+      <c r="I28">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29">
+        <v>62</v>
+      </c>
+      <c r="C29" s="1">
+        <v>72444</v>
+      </c>
+      <c r="D29" s="1">
+        <v>506349</v>
+      </c>
+      <c r="E29" s="1">
+        <v>501502</v>
+      </c>
+      <c r="F29" s="1">
+        <v>446773</v>
+      </c>
+      <c r="G29" s="1">
+        <v>459315</v>
+      </c>
+      <c r="I29">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30">
+        <v>47</v>
+      </c>
+      <c r="C30" s="1">
+        <v>81816</v>
+      </c>
+      <c r="D30" s="1">
+        <v>653047</v>
+      </c>
+      <c r="E30" s="1">
+        <v>607000</v>
+      </c>
+      <c r="F30" s="1">
+        <v>363037</v>
+      </c>
+      <c r="G30" s="1">
+        <v>373088</v>
+      </c>
+      <c r="I30">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31">
+        <v>68</v>
+      </c>
+      <c r="C31" s="1">
+        <v>24851</v>
+      </c>
+      <c r="D31" s="1">
+        <v>617332</v>
+      </c>
+      <c r="E31" s="1">
+        <v>542625</v>
+      </c>
+      <c r="F31" s="1">
+        <v>525591</v>
+      </c>
+      <c r="G31" s="1">
+        <v>516112</v>
+      </c>
+      <c r="I31">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32">
+        <v>658</v>
+      </c>
+      <c r="C32" s="1">
+        <v>469955</v>
+      </c>
+      <c r="D32" s="1">
+        <v>642609</v>
+      </c>
+      <c r="E32" s="1">
+        <v>688520</v>
+      </c>
+      <c r="F32" s="1">
+        <v>533482</v>
+      </c>
+      <c r="G32" s="1">
+        <v>584438</v>
+      </c>
+      <c r="I32">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I33">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <v>195</v>
+      </c>
+      <c r="C35" s="1">
+        <v>113707</v>
+      </c>
+      <c r="D35" s="1">
+        <v>545044</v>
+      </c>
+      <c r="E35" s="1">
+        <v>525844</v>
+      </c>
+      <c r="F35" s="1">
+        <v>502250</v>
+      </c>
+      <c r="G35" s="1">
+        <v>496171</v>
+      </c>
+      <c r="H35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <v>110</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45103</v>
+      </c>
+      <c r="D36" s="1">
+        <v>598400</v>
+      </c>
+      <c r="F36" s="1">
+        <v>425272</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <v>250</v>
+      </c>
+      <c r="C37" s="1">
+        <v>203969</v>
+      </c>
+      <c r="D37" s="1">
+        <v>679679</v>
+      </c>
+      <c r="E37" s="1">
+        <v>739938</v>
+      </c>
+      <c r="F37" s="1">
+        <v>610181</v>
+      </c>
+      <c r="G37" s="1">
+        <v>624776</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>496</v>
+      </c>
+      <c r="D38" s="1">
+        <v>632100</v>
+      </c>
+      <c r="F38" s="1">
+        <v>632100</v>
+      </c>
+      <c r="H38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B39">
+        <v>47</v>
+      </c>
+      <c r="C39" s="1">
+        <v>81816</v>
+      </c>
+      <c r="D39" s="1">
+        <v>653047</v>
+      </c>
+      <c r="E39" s="1">
+        <v>607000</v>
+      </c>
+      <c r="F39" s="1">
+        <v>363037</v>
+      </c>
+      <c r="G39" s="1">
+        <v>373088</v>
+      </c>
+      <c r="H39" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B40">
+        <v>34</v>
+      </c>
+      <c r="C40" s="1">
+        <v>16621</v>
+      </c>
+      <c r="D40" s="1">
+        <v>887090</v>
+      </c>
+      <c r="E40" s="1">
+        <v>780511</v>
+      </c>
+      <c r="F40" s="1">
+        <v>721581</v>
+      </c>
+      <c r="G40" s="1">
+        <v>722842</v>
+      </c>
+      <c r="H40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2289</v>
+      </c>
+      <c r="D41" s="1">
+        <v>477516</v>
+      </c>
+      <c r="F41" s="1">
+        <v>391088</v>
+      </c>
+      <c r="H41" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B42">
+        <v>15</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5954</v>
+      </c>
+      <c r="D42" s="1">
+        <v>809313</v>
+      </c>
+      <c r="E42" s="1">
+        <v>811630</v>
+      </c>
+      <c r="F42" s="1">
+        <v>612823</v>
+      </c>
+      <c r="G42" s="1">
+        <v>575012</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42">
+        <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
@@ -7037,7 +7650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
@@ -8068,7 +8681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
@@ -9113,7 +9726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
@@ -13226,7 +13839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K135"/>
   <sheetViews>
@@ -17415,7 +18028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
@@ -21546,7 +22159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
@@ -25671,7 +26284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K127"/>
   <sheetViews>
@@ -29616,7 +30229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K135"/>
   <sheetViews>
@@ -33745,7 +34358,2587 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BQ10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>29</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>39</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>40</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!B$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>1303652</v>
+      </c>
+      <c r="C4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!C$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>36172</v>
+      </c>
+      <c r="D4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!D$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>113251</v>
+      </c>
+      <c r="E4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!E$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>283218</v>
+      </c>
+      <c r="F4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!F$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>23667</v>
+      </c>
+      <c r="G4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!G$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>11705</v>
+      </c>
+      <c r="H4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!H$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>162131</v>
+      </c>
+      <c r="I4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!I$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>1933796</v>
+      </c>
+      <c r="J4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!J$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="K4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!K$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>1.63</v>
+      </c>
+      <c r="L4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!L$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>2.6</v>
+      </c>
+      <c r="M4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!M$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>1.79</v>
+      </c>
+      <c r="N4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!N$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>2.73</v>
+      </c>
+      <c r="O4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!O$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="P4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!P$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>2.11</v>
+      </c>
+      <c r="Q4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!Q$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>2.37</v>
+      </c>
+      <c r="R4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!R$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>2884</v>
+      </c>
+      <c r="S4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!S$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>13227</v>
+      </c>
+      <c r="T4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!T$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>151442</v>
+      </c>
+      <c r="U4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!U$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>16391</v>
+      </c>
+      <c r="V4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!V$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>8821</v>
+      </c>
+      <c r="W4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!W$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>114</v>
+      </c>
+      <c r="X4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!X$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Y$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>5829</v>
+      </c>
+      <c r="Z4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Z$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>666162</v>
+      </c>
+      <c r="AA4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AA$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>1164</v>
+      </c>
+      <c r="AB4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AB$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>1717</v>
+      </c>
+      <c r="AC4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AC$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>14395</v>
+      </c>
+      <c r="AD4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AD$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>4965</v>
+      </c>
+      <c r="AE4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AE$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>149560</v>
+      </c>
+      <c r="AF4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AF$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>13304</v>
+      </c>
+      <c r="AG4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AG$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AH$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>35513</v>
+      </c>
+      <c r="AI4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AI$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>15678</v>
+      </c>
+      <c r="AJ4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AJ$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>26612</v>
+      </c>
+      <c r="AK4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AK$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>40158</v>
+      </c>
+      <c r="AL4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AL$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>165212</v>
+      </c>
+      <c r="AM4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AM$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>9768</v>
+      </c>
+      <c r="AN4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AN$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>35280</v>
+      </c>
+      <c r="AO4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AO$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>243121</v>
+      </c>
+      <c r="AP4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AP$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>15684</v>
+      </c>
+      <c r="AQ4">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AQ$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>231142</v>
+      </c>
+      <c r="AR4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AR$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>2.04</v>
+      </c>
+      <c r="AS4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AS$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="AT4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AT$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>2.17</v>
+      </c>
+      <c r="AU4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AU$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>1.73</v>
+      </c>
+      <c r="AV4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AV$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>2.23</v>
+      </c>
+      <c r="AW4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AW$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>1.7</v>
+      </c>
+      <c r="AX4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AX$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AY$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AZ4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AZ$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>2.64</v>
+      </c>
+      <c r="BA4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BA$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="BB4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BB$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>1.19</v>
+      </c>
+      <c r="BC4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BC$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="BD4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BD$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>1.42</v>
+      </c>
+      <c r="BE4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BE$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>2.38</v>
+      </c>
+      <c r="BF4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BF$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>2.19</v>
+      </c>
+      <c r="BG4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BG$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BH$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="BI4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BI$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>2.86</v>
+      </c>
+      <c r="BJ4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BJ$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>1.79</v>
+      </c>
+      <c r="BK4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BK$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="BL4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BL$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>2.16</v>
+      </c>
+      <c r="BM4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BM$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BN4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BN$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>2.7</v>
+      </c>
+      <c r="BO4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BO$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>1.75</v>
+      </c>
+      <c r="BP4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BP$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>2.58</v>
+      </c>
+      <c r="BQ4">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BQ$3,夏季型!$K:$K,夏季型まとめ!$A4)</f>
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2018</v>
+      </c>
+      <c r="B5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!B$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>1159866</v>
+      </c>
+      <c r="C5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!C$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>48517</v>
+      </c>
+      <c r="D5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!D$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>138536</v>
+      </c>
+      <c r="E5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!E$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>274045</v>
+      </c>
+      <c r="F5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!F$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>16596</v>
+      </c>
+      <c r="G5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!G$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>9946</v>
+      </c>
+      <c r="H5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!H$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>199983</v>
+      </c>
+      <c r="I5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!I$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>1847489</v>
+      </c>
+      <c r="J5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!J$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.58</v>
+      </c>
+      <c r="K5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!K$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>1.8</v>
+      </c>
+      <c r="L5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!L$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.5</v>
+      </c>
+      <c r="M5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!M$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.12</v>
+      </c>
+      <c r="N5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!N$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.9</v>
+      </c>
+      <c r="O5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!O$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.17</v>
+      </c>
+      <c r="P5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!P$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.16</v>
+      </c>
+      <c r="Q5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!Q$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.44</v>
+      </c>
+      <c r="R5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!R$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>3116</v>
+      </c>
+      <c r="S5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!S$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>30024</v>
+      </c>
+      <c r="T5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!T$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>141401</v>
+      </c>
+      <c r="U5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!U$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>39360</v>
+      </c>
+      <c r="V5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!V$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>6830</v>
+      </c>
+      <c r="W5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!W$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!X$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Y$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>13348</v>
+      </c>
+      <c r="Z5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Z$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>576605</v>
+      </c>
+      <c r="AA5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AA$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>22641</v>
+      </c>
+      <c r="AB5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AB$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>1412</v>
+      </c>
+      <c r="AC5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AC$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>38790</v>
+      </c>
+      <c r="AD5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AD$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>1672</v>
+      </c>
+      <c r="AE5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AE$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>190926</v>
+      </c>
+      <c r="AF5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AF$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>14396</v>
+      </c>
+      <c r="AG5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AG$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2317</v>
+      </c>
+      <c r="AH5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AH$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>22682</v>
+      </c>
+      <c r="AI5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AI$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>15270</v>
+      </c>
+      <c r="AJ5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AJ$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>25268</v>
+      </c>
+      <c r="AK5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AK$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>41571</v>
+      </c>
+      <c r="AL5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AL$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>165874</v>
+      </c>
+      <c r="AM5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AM$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AN$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>45045</v>
+      </c>
+      <c r="AO5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AO$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>243998</v>
+      </c>
+      <c r="AP5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AP$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>31127</v>
+      </c>
+      <c r="AQ5">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AQ$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>107440</v>
+      </c>
+      <c r="AR5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AR$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AS5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AS$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.71</v>
+      </c>
+      <c r="AT5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AT$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.12</v>
+      </c>
+      <c r="AU5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AU$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.7</v>
+      </c>
+      <c r="AV5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AV$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="AW5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AW$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AX$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AY$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.39</v>
+      </c>
+      <c r="AZ5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AZ$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.65</v>
+      </c>
+      <c r="BA5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BA$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.19</v>
+      </c>
+      <c r="BB5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BB$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>1.28</v>
+      </c>
+      <c r="BC5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BC$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="BD5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BD$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>1.53</v>
+      </c>
+      <c r="BE5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BE$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.57</v>
+      </c>
+      <c r="BF5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BF$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.21</v>
+      </c>
+      <c r="BG5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BG$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.5</v>
+      </c>
+      <c r="BH5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BH$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="BI5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BI$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.85</v>
+      </c>
+      <c r="BJ5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BJ$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>1.85</v>
+      </c>
+      <c r="BK5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BK$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="BL5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BL$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.14</v>
+      </c>
+      <c r="BM5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BM$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BN$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.63</v>
+      </c>
+      <c r="BO5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BO$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.15</v>
+      </c>
+      <c r="BP5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BP$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.68</v>
+      </c>
+      <c r="BQ5">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BQ$3,夏季型!$K:$K,夏季型まとめ!$A5)</f>
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <f t="shared" ref="A6:A10" si="0">A5+1</f>
+        <v>2019</v>
+      </c>
+      <c r="B6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!B$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>986640</v>
+      </c>
+      <c r="C6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!C$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>58432</v>
+      </c>
+      <c r="D6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!D$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>67547</v>
+      </c>
+      <c r="E6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!E$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>268212</v>
+      </c>
+      <c r="F6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!F$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>13668</v>
+      </c>
+      <c r="G6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!G$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>10027</v>
+      </c>
+      <c r="H6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!H$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>184361</v>
+      </c>
+      <c r="I6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!I$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>1588887</v>
+      </c>
+      <c r="J6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!J$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2.62</v>
+      </c>
+      <c r="K6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!K$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>1.59</v>
+      </c>
+      <c r="L6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!L$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2.38</v>
+      </c>
+      <c r="M6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!M$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2.11</v>
+      </c>
+      <c r="N6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!N$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>3.14</v>
+      </c>
+      <c r="O6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!O$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2.19</v>
+      </c>
+      <c r="P6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!P$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2.25</v>
+      </c>
+      <c r="Q6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!Q$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="R6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!R$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>3363</v>
+      </c>
+      <c r="S6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!S$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>29814</v>
+      </c>
+      <c r="T6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!T$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>138429</v>
+      </c>
+      <c r="U6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!U$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>15850</v>
+      </c>
+      <c r="V6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!V$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>6664</v>
+      </c>
+      <c r="W6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!W$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!X$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Y$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>7806</v>
+      </c>
+      <c r="Z6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Z$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>636943</v>
+      </c>
+      <c r="AA6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AA$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>22700</v>
+      </c>
+      <c r="AB6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AB$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>215</v>
+      </c>
+      <c r="AC6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AC$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>30768</v>
+      </c>
+      <c r="AD6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AD$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2590</v>
+      </c>
+      <c r="AE6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AE$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>72709</v>
+      </c>
+      <c r="AF6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AF$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>12307</v>
+      </c>
+      <c r="AG6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AG$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>1960</v>
+      </c>
+      <c r="AH6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AH$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>7661</v>
+      </c>
+      <c r="AI6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AI$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>12124</v>
+      </c>
+      <c r="AJ6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AJ$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>21398</v>
+      </c>
+      <c r="AK6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AK$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>40716</v>
+      </c>
+      <c r="AL6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AL$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>125797</v>
+      </c>
+      <c r="AM6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AM$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AN$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>41146</v>
+      </c>
+      <c r="AO6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AO$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>243945</v>
+      </c>
+      <c r="AP6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AP$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>30438</v>
+      </c>
+      <c r="AQ6">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AQ$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>77304</v>
+      </c>
+      <c r="AR6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AR$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="AS6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AS$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2.65</v>
+      </c>
+      <c r="AT6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AT$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2.21</v>
+      </c>
+      <c r="AU6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AU$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>1.99</v>
+      </c>
+      <c r="AV6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AV$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2.25</v>
+      </c>
+      <c r="AW6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AW$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AX$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AY$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AZ6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AZ$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2.7</v>
+      </c>
+      <c r="BA6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BA$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BB6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BB$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2.12</v>
+      </c>
+      <c r="BC6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BC$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2</v>
+      </c>
+      <c r="BD6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BD$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>1.6</v>
+      </c>
+      <c r="BE6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BE$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2.61</v>
+      </c>
+      <c r="BF6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BF$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2.06</v>
+      </c>
+      <c r="BG6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BG$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2.82</v>
+      </c>
+      <c r="BH6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BH$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2.39</v>
+      </c>
+      <c r="BI6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BI$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2.86</v>
+      </c>
+      <c r="BJ6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BJ$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>1.7</v>
+      </c>
+      <c r="BK6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BK$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2.54</v>
+      </c>
+      <c r="BL6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BL$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>1.99</v>
+      </c>
+      <c r="BM6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BM$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BN$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2.68</v>
+      </c>
+      <c r="BO6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BO$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2.15</v>
+      </c>
+      <c r="BP6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BP$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2.69</v>
+      </c>
+      <c r="BQ6">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BQ$3,夏季型!$K:$K,夏季型まとめ!$A6)</f>
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="B7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!B$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>877309</v>
+      </c>
+      <c r="C7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!C$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>126706</v>
+      </c>
+      <c r="D7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!D$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>133738</v>
+      </c>
+      <c r="E7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!E$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>264118</v>
+      </c>
+      <c r="F7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!F$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>20293</v>
+      </c>
+      <c r="G7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!G$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>10060</v>
+      </c>
+      <c r="H7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!H$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>205342</v>
+      </c>
+      <c r="I7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!I$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>1637566</v>
+      </c>
+      <c r="J7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!J$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>2.37</v>
+      </c>
+      <c r="K7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!K$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>1.86</v>
+      </c>
+      <c r="L7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!L$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>1.83</v>
+      </c>
+      <c r="M7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!M$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>2.08</v>
+      </c>
+      <c r="N7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!N$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>2.08</v>
+      </c>
+      <c r="O7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!O$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!P$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>2.27</v>
+      </c>
+      <c r="Q7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!Q$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="R7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!R$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>3420</v>
+      </c>
+      <c r="S7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!S$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>32796</v>
+      </c>
+      <c r="T7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!T$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>132784</v>
+      </c>
+      <c r="U7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!U$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>50118</v>
+      </c>
+      <c r="V7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!V$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>6640</v>
+      </c>
+      <c r="W7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!W$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!X$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Y$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>21892</v>
+      </c>
+      <c r="Z7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Z$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>469282</v>
+      </c>
+      <c r="AA7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AA$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>22580</v>
+      </c>
+      <c r="AB7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AB$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>2506</v>
+      </c>
+      <c r="AC7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AC$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>41345</v>
+      </c>
+      <c r="AD7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AD$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>3206</v>
+      </c>
+      <c r="AE7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AE$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AF$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>12718</v>
+      </c>
+      <c r="AG7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AG$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>1617</v>
+      </c>
+      <c r="AH7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AH$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>22119</v>
+      </c>
+      <c r="AI7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AI$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>15654</v>
+      </c>
+      <c r="AJ7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AJ$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>19314</v>
+      </c>
+      <c r="AK7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AK$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>43172</v>
+      </c>
+      <c r="AL7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AL$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>264712</v>
+      </c>
+      <c r="AM7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AM$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AN$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>41309</v>
+      </c>
+      <c r="AO7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AO$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>242758</v>
+      </c>
+      <c r="AP7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AP$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>14437</v>
+      </c>
+      <c r="AQ7">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AQ$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>120193</v>
+      </c>
+      <c r="AR7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AR$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="AS7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AS$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>2.59</v>
+      </c>
+      <c r="AT7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AT$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>2.33</v>
+      </c>
+      <c r="AU7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AU$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>2.16</v>
+      </c>
+      <c r="AV7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AV$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AW7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AW$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AX$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AY$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>2.09</v>
+      </c>
+      <c r="AZ7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AZ$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="BA7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BA$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>2.31</v>
+      </c>
+      <c r="BB7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BB$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>1.57</v>
+      </c>
+      <c r="BC7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BC$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>1.17</v>
+      </c>
+      <c r="BD7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BD$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>1.66</v>
+      </c>
+      <c r="BE7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BE$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BF$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>2.09</v>
+      </c>
+      <c r="BG7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BG$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>2.77</v>
+      </c>
+      <c r="BH7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BH$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>2.54</v>
+      </c>
+      <c r="BI7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BI$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>2.61</v>
+      </c>
+      <c r="BJ7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BJ$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>1.31</v>
+      </c>
+      <c r="BK7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BK$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="BL7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BL$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>1.99</v>
+      </c>
+      <c r="BM7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BM$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BN$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>2.57</v>
+      </c>
+      <c r="BO7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BO$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>2.15</v>
+      </c>
+      <c r="BP7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BP$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>2.8</v>
+      </c>
+      <c r="BQ7">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BQ$3,夏季型!$K:$K,夏季型まとめ!$A7)</f>
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="B8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!B$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>879375</v>
+      </c>
+      <c r="C8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!C$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>139453</v>
+      </c>
+      <c r="D8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!D$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>176205</v>
+      </c>
+      <c r="E8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!E$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>8513</v>
+      </c>
+      <c r="F8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!F$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>12716</v>
+      </c>
+      <c r="G8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!G$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>11682</v>
+      </c>
+      <c r="H8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!H$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>178255</v>
+      </c>
+      <c r="I8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!I$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>1406199</v>
+      </c>
+      <c r="J8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!J$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>2.38</v>
+      </c>
+      <c r="K8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!K$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>1.73</v>
+      </c>
+      <c r="L8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!L$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>1.51</v>
+      </c>
+      <c r="M8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!M$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>0.89</v>
+      </c>
+      <c r="N8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!N$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>2.27</v>
+      </c>
+      <c r="O8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!O$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="P8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!P$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>2.27</v>
+      </c>
+      <c r="Q8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!Q$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="R8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!R$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>3737</v>
+      </c>
+      <c r="S8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!S$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>34112</v>
+      </c>
+      <c r="T8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!T$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>120639</v>
+      </c>
+      <c r="U8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!U$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>22959</v>
+      </c>
+      <c r="V8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!V$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>8979</v>
+      </c>
+      <c r="W8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!W$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!X$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Y$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>14255</v>
+      </c>
+      <c r="Z8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Z$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>508940</v>
+      </c>
+      <c r="AA8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AA$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>23123</v>
+      </c>
+      <c r="AB8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AB$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>32684</v>
+      </c>
+      <c r="AC8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AC$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>32186</v>
+      </c>
+      <c r="AD8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AD$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>1409</v>
+      </c>
+      <c r="AE8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AE$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AF$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>12733</v>
+      </c>
+      <c r="AG8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AG$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>2550</v>
+      </c>
+      <c r="AH8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AH$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>12659</v>
+      </c>
+      <c r="AI8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AI$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>14830</v>
+      </c>
+      <c r="AJ8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AJ$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>4377</v>
+      </c>
+      <c r="AK8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AK$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>43138</v>
+      </c>
+      <c r="AL8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AL$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>249302</v>
+      </c>
+      <c r="AM8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AM$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AN$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>73738</v>
+      </c>
+      <c r="AO8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AO$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AP$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>16960</v>
+      </c>
+      <c r="AQ8">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AQ$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>125613</v>
+      </c>
+      <c r="AR8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AR$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>2.34</v>
+      </c>
+      <c r="AS8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AS$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>2.62</v>
+      </c>
+      <c r="AT8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AT$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>2.29</v>
+      </c>
+      <c r="AU8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AU$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>1.8</v>
+      </c>
+      <c r="AV8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AV$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>2.25</v>
+      </c>
+      <c r="AW8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AW$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AX$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AY$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>2.64</v>
+      </c>
+      <c r="AZ8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AZ$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>2.44</v>
+      </c>
+      <c r="BA8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BA$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="BB8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BB$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>1.6</v>
+      </c>
+      <c r="BC8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BC$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>0.41</v>
+      </c>
+      <c r="BD8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BD$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>1.59</v>
+      </c>
+      <c r="BE8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BE$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BF$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>2.11</v>
+      </c>
+      <c r="BG8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BG$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="BH8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BH$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>2.23</v>
+      </c>
+      <c r="BI8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BI$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>2.76</v>
+      </c>
+      <c r="BJ8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BJ$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>0.87</v>
+      </c>
+      <c r="BK8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BK$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>2.41</v>
+      </c>
+      <c r="BL8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BL$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>1.93</v>
+      </c>
+      <c r="BM8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BM$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BN$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>1.74</v>
+      </c>
+      <c r="BO8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BO$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BP$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>2.52</v>
+      </c>
+      <c r="BQ8">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BQ$3,夏季型!$K:$K,夏季型まとめ!$A8)</f>
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="B9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!B$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>1076404</v>
+      </c>
+      <c r="C9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!C$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>98470</v>
+      </c>
+      <c r="D9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!D$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>171229</v>
+      </c>
+      <c r="E9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!E$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>264793</v>
+      </c>
+      <c r="F9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!F$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>13000</v>
+      </c>
+      <c r="G9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!G$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>11216</v>
+      </c>
+      <c r="H9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!H$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>185645</v>
+      </c>
+      <c r="I9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!I$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>1820757</v>
+      </c>
+      <c r="J9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!J$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>2.56</v>
+      </c>
+      <c r="K9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!K$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>1.81</v>
+      </c>
+      <c r="L9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!L$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>1.68</v>
+      </c>
+      <c r="M9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!M$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>2.04</v>
+      </c>
+      <c r="N9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!N$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>2.57</v>
+      </c>
+      <c r="O9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!O$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>2.25</v>
+      </c>
+      <c r="P9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!P$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="Q9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!Q$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>2.33</v>
+      </c>
+      <c r="R9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!R$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>4348</v>
+      </c>
+      <c r="S9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!S$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>34546</v>
+      </c>
+      <c r="T9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!T$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>123534</v>
+      </c>
+      <c r="U9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!U$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>58139</v>
+      </c>
+      <c r="V9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!V$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>6868</v>
+      </c>
+      <c r="W9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!W$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>104</v>
+      </c>
+      <c r="X9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!X$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>508</v>
+      </c>
+      <c r="Y9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Y$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>7493</v>
+      </c>
+      <c r="Z9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Z$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>596645</v>
+      </c>
+      <c r="AA9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AA$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>21222</v>
+      </c>
+      <c r="AB9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AB$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>21609</v>
+      </c>
+      <c r="AC9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AC$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>36809</v>
+      </c>
+      <c r="AD9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AD$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>2780</v>
+      </c>
+      <c r="AE9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AE$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AF$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>12833</v>
+      </c>
+      <c r="AG9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AG$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>2766</v>
+      </c>
+      <c r="AH9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AH$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>24427</v>
+      </c>
+      <c r="AI9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AI$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>14794</v>
+      </c>
+      <c r="AJ9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AJ$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>23899</v>
+      </c>
+      <c r="AK9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AK$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>42662</v>
+      </c>
+      <c r="AL9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AL$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>169752</v>
+      </c>
+      <c r="AM9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AM$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AN$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>72248</v>
+      </c>
+      <c r="AO9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AO$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>238973</v>
+      </c>
+      <c r="AP9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AP$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>21077</v>
+      </c>
+      <c r="AQ9">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AQ$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>234334</v>
+      </c>
+      <c r="AR9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AR$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>2.23</v>
+      </c>
+      <c r="AS9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AS$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>2.63</v>
+      </c>
+      <c r="AT9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AT$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="AU9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AU$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="AV9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AV$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>2.27</v>
+      </c>
+      <c r="AW9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AW$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>1.55</v>
+      </c>
+      <c r="AX9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AX$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AY9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AY$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>2.72</v>
+      </c>
+      <c r="AZ9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AZ$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>2.67</v>
+      </c>
+      <c r="BA9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BA$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="BB9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BB$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>1.45</v>
+      </c>
+      <c r="BC9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BC$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>1.2</v>
+      </c>
+      <c r="BD9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BD$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>1.39</v>
+      </c>
+      <c r="BE9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BE$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BF$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>2.17</v>
+      </c>
+      <c r="BG9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BG$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>2.54</v>
+      </c>
+      <c r="BH9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BH$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>2.61</v>
+      </c>
+      <c r="BI9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BI$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>2.86</v>
+      </c>
+      <c r="BJ9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BJ$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>1.28</v>
+      </c>
+      <c r="BK9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BK$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>2.48</v>
+      </c>
+      <c r="BL9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BL$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>1.89</v>
+      </c>
+      <c r="BM9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BM$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BN$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>1.82</v>
+      </c>
+      <c r="BO9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BO$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>2.15</v>
+      </c>
+      <c r="BP9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BP$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>2.62</v>
+      </c>
+      <c r="BQ9">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BQ$3,夏季型!$K:$K,夏季型まとめ!$A9)</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="B10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!B$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>1016988</v>
+      </c>
+      <c r="C10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!C$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>155035</v>
+      </c>
+      <c r="D10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!D$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>132937</v>
+      </c>
+      <c r="E10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!E$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>279222</v>
+      </c>
+      <c r="F10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!F$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>12797</v>
+      </c>
+      <c r="G10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!G$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>10517</v>
+      </c>
+      <c r="H10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!H$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>169975</v>
+      </c>
+      <c r="I10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$A:$A,夏季型まとめ!I$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>1777471</v>
+      </c>
+      <c r="J10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!J$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="K10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!K$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>1.72</v>
+      </c>
+      <c r="L10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!L$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="M10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!M$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.13</v>
+      </c>
+      <c r="N10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!N$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.72</v>
+      </c>
+      <c r="O10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!O$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!P$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="Q10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$A:$A,夏季型まとめ!Q$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.34</v>
+      </c>
+      <c r="R10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!R$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>3704</v>
+      </c>
+      <c r="S10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!S$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>33951</v>
+      </c>
+      <c r="T10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!T$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>126937</v>
+      </c>
+      <c r="U10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!U$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>45972</v>
+      </c>
+      <c r="V10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!V$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>6813</v>
+      </c>
+      <c r="W10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!W$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!X$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Y$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>5782</v>
+      </c>
+      <c r="Z10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!Z$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>501717</v>
+      </c>
+      <c r="AA10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AA$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>21622</v>
+      </c>
+      <c r="AB10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AB$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>1558</v>
+      </c>
+      <c r="AC10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AC$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>43106</v>
+      </c>
+      <c r="AD10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AD$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2131</v>
+      </c>
+      <c r="AE10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AE$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AF$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>12324</v>
+      </c>
+      <c r="AG10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AG$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>1804</v>
+      </c>
+      <c r="AH10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AH$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>22302</v>
+      </c>
+      <c r="AI10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AI$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>14535</v>
+      </c>
+      <c r="AJ10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AJ$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>38247</v>
+      </c>
+      <c r="AK10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AK$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>41100</v>
+      </c>
+      <c r="AL10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AL$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>262577</v>
+      </c>
+      <c r="AM10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AM$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AN$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>47071</v>
+      </c>
+      <c r="AO10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AO$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>238973</v>
+      </c>
+      <c r="AP10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AP$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>27389</v>
+      </c>
+      <c r="AQ10">
+        <f>SUMIFS(夏季型!$C:$C,夏季型!$J:$J,夏季型まとめ!AQ$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>230127</v>
+      </c>
+      <c r="AR10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AR$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.06</v>
+      </c>
+      <c r="AS10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AS$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="AT10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AT$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AU10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AU$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.33</v>
+      </c>
+      <c r="AV10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AV$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.27</v>
+      </c>
+      <c r="AW10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AW$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>1.7</v>
+      </c>
+      <c r="AX10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AX$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AY$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.54</v>
+      </c>
+      <c r="AZ10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!AZ$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.61</v>
+      </c>
+      <c r="BA10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BA$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.23</v>
+      </c>
+      <c r="BB10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BB$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="BC10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BC$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.02</v>
+      </c>
+      <c r="BD10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BD$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>1.49</v>
+      </c>
+      <c r="BE10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BE$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BF$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.39</v>
+      </c>
+      <c r="BG10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BG$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.98</v>
+      </c>
+      <c r="BH10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BH$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.67</v>
+      </c>
+      <c r="BI10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BI$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.87</v>
+      </c>
+      <c r="BJ10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BJ$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.02</v>
+      </c>
+      <c r="BK10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BK$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.54</v>
+      </c>
+      <c r="BL10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BL$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>1.95</v>
+      </c>
+      <c r="BM10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BM$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BN$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.39</v>
+      </c>
+      <c r="BO10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BO$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.15</v>
+      </c>
+      <c r="BP10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BP$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.93</v>
+      </c>
+      <c r="BQ10">
+        <f>SUMIFS(夏季型!$E:$E,夏季型!$J:$J,夏季型まとめ!BQ$3,夏季型!$K:$K,夏季型まとめ!$A10)</f>
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K134"/>
   <sheetViews>
@@ -37902,7 +41095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ10"/>
   <sheetViews>
@@ -40482,7 +43675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K245"/>
@@ -51757,7 +54950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K253"/>
   <sheetViews>
@@ -63365,12 +66558,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="H129" sqref="H129"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H35" sqref="H35:H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -69032,7 +72225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
@@ -70003,7 +73196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
@@ -71050,7 +74243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
@@ -71978,1019 +75171,4 @@
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="A4:I25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>857</v>
-      </c>
-      <c r="C4" s="1">
-        <v>491847</v>
-      </c>
-      <c r="D4">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="E4">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F4">
-        <v>2.17</v>
-      </c>
-      <c r="G4">
-        <v>2.31</v>
-      </c>
-      <c r="I4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>62</v>
-      </c>
-      <c r="C5" s="1">
-        <v>72444</v>
-      </c>
-      <c r="D5">
-        <v>1.79</v>
-      </c>
-      <c r="E5">
-        <v>2.06</v>
-      </c>
-      <c r="F5">
-        <v>1.66</v>
-      </c>
-      <c r="G5">
-        <v>1.78</v>
-      </c>
-      <c r="I5">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>53414</v>
-      </c>
-      <c r="D6">
-        <v>1.61</v>
-      </c>
-      <c r="E6">
-        <v>1.9</v>
-      </c>
-      <c r="F6">
-        <v>1.81</v>
-      </c>
-      <c r="G6">
-        <v>1.73</v>
-      </c>
-      <c r="I6">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>245425</v>
-      </c>
-      <c r="D7">
-        <v>2.14</v>
-      </c>
-      <c r="E7">
-        <v>2.13</v>
-      </c>
-      <c r="F7">
-        <v>1.64</v>
-      </c>
-      <c r="G7">
-        <v>1.33</v>
-      </c>
-      <c r="I7">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1">
-        <v>10060</v>
-      </c>
-      <c r="D8">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="E8">
-        <v>2.23</v>
-      </c>
-      <c r="F8">
-        <v>2.34</v>
-      </c>
-      <c r="G8">
-        <v>2.33</v>
-      </c>
-      <c r="I8">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>68</v>
-      </c>
-      <c r="C9" s="1">
-        <v>24851</v>
-      </c>
-      <c r="D9">
-        <v>2.06</v>
-      </c>
-      <c r="E9">
-        <v>2.06</v>
-      </c>
-      <c r="F9">
-        <v>1.98</v>
-      </c>
-      <c r="G9">
-        <v>1.96</v>
-      </c>
-      <c r="I9">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1017</v>
-      </c>
-      <c r="C10" s="1">
-        <v>898041</v>
-      </c>
-      <c r="D10">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="E10">
-        <v>2.31</v>
-      </c>
-      <c r="F10">
-        <v>2.13</v>
-      </c>
-      <c r="G10">
-        <v>2.21</v>
-      </c>
-      <c r="I10">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B13">
-        <v>195</v>
-      </c>
-      <c r="C13" s="1">
-        <v>113707</v>
-      </c>
-      <c r="D13">
-        <v>1.89</v>
-      </c>
-      <c r="E13">
-        <v>2.06</v>
-      </c>
-      <c r="F13">
-        <v>1.87</v>
-      </c>
-      <c r="G13">
-        <v>1.89</v>
-      </c>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B14">
-        <v>738</v>
-      </c>
-      <c r="C14" s="1">
-        <v>453493</v>
-      </c>
-      <c r="D14">
-        <v>2.48</v>
-      </c>
-      <c r="F14">
-        <v>2.19</v>
-      </c>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>242758</v>
-      </c>
-      <c r="D15">
-        <v>2.15</v>
-      </c>
-      <c r="E15">
-        <v>2.15</v>
-      </c>
-      <c r="F15">
-        <v>2.15</v>
-      </c>
-      <c r="G15">
-        <v>2.15</v>
-      </c>
-      <c r="H15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>496</v>
-      </c>
-      <c r="D16">
-        <v>2.1</v>
-      </c>
-      <c r="F16">
-        <v>2.1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>26363</v>
-      </c>
-      <c r="D17">
-        <v>1.68</v>
-      </c>
-      <c r="E17">
-        <v>1.5</v>
-      </c>
-      <c r="F17">
-        <v>1.68</v>
-      </c>
-      <c r="G17">
-        <v>1.5</v>
-      </c>
-      <c r="H17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B18">
-        <v>30</v>
-      </c>
-      <c r="C18" s="1">
-        <v>11639</v>
-      </c>
-      <c r="D18">
-        <v>2.67</v>
-      </c>
-      <c r="E18">
-        <v>2.54</v>
-      </c>
-      <c r="F18">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G18">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="H18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>24800</v>
-      </c>
-      <c r="D19">
-        <v>1.5</v>
-      </c>
-      <c r="F19">
-        <v>1.5</v>
-      </c>
-      <c r="H19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1">
-        <v>4268</v>
-      </c>
-      <c r="D20">
-        <v>1.78</v>
-      </c>
-      <c r="E20">
-        <v>1.61</v>
-      </c>
-      <c r="F20">
-        <v>1.75</v>
-      </c>
-      <c r="G20">
-        <v>1.33</v>
-      </c>
-      <c r="H20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>650</v>
-      </c>
-      <c r="D21">
-        <v>1.5</v>
-      </c>
-      <c r="F21">
-        <v>1.5</v>
-      </c>
-      <c r="H21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2289</v>
-      </c>
-      <c r="D22">
-        <v>1.73</v>
-      </c>
-      <c r="F22">
-        <v>1.5</v>
-      </c>
-      <c r="H22" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B23">
-        <v>17</v>
-      </c>
-      <c r="C23" s="1">
-        <v>7518</v>
-      </c>
-      <c r="D23">
-        <v>2.69</v>
-      </c>
-      <c r="E23">
-        <v>2.72</v>
-      </c>
-      <c r="F23">
-        <v>2.36</v>
-      </c>
-      <c r="G23">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B24">
-        <v>14</v>
-      </c>
-      <c r="C24" s="1">
-        <v>6640</v>
-      </c>
-      <c r="D24">
-        <v>2.31</v>
-      </c>
-      <c r="E24">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F24">
-        <v>2.29</v>
-      </c>
-      <c r="G24">
-        <v>2.27</v>
-      </c>
-      <c r="H24" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1">
-        <v>3420</v>
-      </c>
-      <c r="D25">
-        <v>2.1</v>
-      </c>
-      <c r="E25">
-        <v>2.1</v>
-      </c>
-      <c r="F25">
-        <v>2.5</v>
-      </c>
-      <c r="G25">
-        <v>2.5</v>
-      </c>
-      <c r="H25" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28">
-        <v>481</v>
-      </c>
-      <c r="C28" s="1">
-        <v>290844</v>
-      </c>
-      <c r="D28" s="1">
-        <v>675773</v>
-      </c>
-      <c r="E28" s="1">
-        <v>750210</v>
-      </c>
-      <c r="F28" s="1">
-        <v>562429</v>
-      </c>
-      <c r="G28" s="1">
-        <v>618433</v>
-      </c>
-      <c r="I28">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29">
-        <v>62</v>
-      </c>
-      <c r="C29" s="1">
-        <v>72444</v>
-      </c>
-      <c r="D29" s="1">
-        <v>506349</v>
-      </c>
-      <c r="E29" s="1">
-        <v>501502</v>
-      </c>
-      <c r="F29" s="1">
-        <v>446773</v>
-      </c>
-      <c r="G29" s="1">
-        <v>459315</v>
-      </c>
-      <c r="I29">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30">
-        <v>47</v>
-      </c>
-      <c r="C30" s="1">
-        <v>81816</v>
-      </c>
-      <c r="D30" s="1">
-        <v>653047</v>
-      </c>
-      <c r="E30" s="1">
-        <v>607000</v>
-      </c>
-      <c r="F30" s="1">
-        <v>363037</v>
-      </c>
-      <c r="G30" s="1">
-        <v>373088</v>
-      </c>
-      <c r="I30">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31">
-        <v>68</v>
-      </c>
-      <c r="C31" s="1">
-        <v>24851</v>
-      </c>
-      <c r="D31" s="1">
-        <v>617332</v>
-      </c>
-      <c r="E31" s="1">
-        <v>542625</v>
-      </c>
-      <c r="F31" s="1">
-        <v>525591</v>
-      </c>
-      <c r="G31" s="1">
-        <v>516112</v>
-      </c>
-      <c r="I31">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32">
-        <v>658</v>
-      </c>
-      <c r="C32" s="1">
-        <v>469955</v>
-      </c>
-      <c r="D32" s="1">
-        <v>642609</v>
-      </c>
-      <c r="E32" s="1">
-        <v>688520</v>
-      </c>
-      <c r="F32" s="1">
-        <v>533482</v>
-      </c>
-      <c r="G32" s="1">
-        <v>584438</v>
-      </c>
-      <c r="I32">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" t="s">
-        <v>60</v>
-      </c>
-      <c r="I33">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" t="s">
-        <v>51</v>
-      </c>
-      <c r="I34">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B35">
-        <v>195</v>
-      </c>
-      <c r="C35" s="1">
-        <v>113707</v>
-      </c>
-      <c r="D35" s="1">
-        <v>545044</v>
-      </c>
-      <c r="E35" s="1">
-        <v>525844</v>
-      </c>
-      <c r="F35" s="1">
-        <v>502250</v>
-      </c>
-      <c r="G35" s="1">
-        <v>496171</v>
-      </c>
-      <c r="H35" t="s">
-        <v>25</v>
-      </c>
-      <c r="I35">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B36">
-        <v>110</v>
-      </c>
-      <c r="C36" s="1">
-        <v>45103</v>
-      </c>
-      <c r="D36" s="1">
-        <v>598400</v>
-      </c>
-      <c r="F36" s="1">
-        <v>425272</v>
-      </c>
-      <c r="H36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I36">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B37">
-        <v>250</v>
-      </c>
-      <c r="C37" s="1">
-        <v>203969</v>
-      </c>
-      <c r="D37" s="1">
-        <v>679679</v>
-      </c>
-      <c r="E37" s="1">
-        <v>739938</v>
-      </c>
-      <c r="F37" s="1">
-        <v>610181</v>
-      </c>
-      <c r="G37" s="1">
-        <v>624776</v>
-      </c>
-      <c r="H37" t="s">
-        <v>29</v>
-      </c>
-      <c r="I37">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>496</v>
-      </c>
-      <c r="D38" s="1">
-        <v>632100</v>
-      </c>
-      <c r="F38" s="1">
-        <v>632100</v>
-      </c>
-      <c r="H38" t="s">
-        <v>31</v>
-      </c>
-      <c r="I38">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B39">
-        <v>47</v>
-      </c>
-      <c r="C39" s="1">
-        <v>81816</v>
-      </c>
-      <c r="D39" s="1">
-        <v>653047</v>
-      </c>
-      <c r="E39" s="1">
-        <v>607000</v>
-      </c>
-      <c r="F39" s="1">
-        <v>363037</v>
-      </c>
-      <c r="G39" s="1">
-        <v>373088</v>
-      </c>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-      <c r="I39">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B40">
-        <v>34</v>
-      </c>
-      <c r="C40" s="1">
-        <v>16621</v>
-      </c>
-      <c r="D40" s="1">
-        <v>887090</v>
-      </c>
-      <c r="E40" s="1">
-        <v>780511</v>
-      </c>
-      <c r="F40" s="1">
-        <v>721581</v>
-      </c>
-      <c r="G40" s="1">
-        <v>722842</v>
-      </c>
-      <c r="H40" t="s">
-        <v>34</v>
-      </c>
-      <c r="I40">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B41">
-        <v>6</v>
-      </c>
-      <c r="C41" s="1">
-        <v>2289</v>
-      </c>
-      <c r="D41" s="1">
-        <v>477516</v>
-      </c>
-      <c r="F41" s="1">
-        <v>391088</v>
-      </c>
-      <c r="H41" t="s">
-        <v>45</v>
-      </c>
-      <c r="I41">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B42">
-        <v>15</v>
-      </c>
-      <c r="C42" s="1">
-        <v>5954</v>
-      </c>
-      <c r="D42" s="1">
-        <v>809313</v>
-      </c>
-      <c r="E42" s="1">
-        <v>811630</v>
-      </c>
-      <c r="F42" s="1">
-        <v>612823</v>
-      </c>
-      <c r="G42" s="1">
-        <v>575012</v>
-      </c>
-      <c r="H42" t="s">
-        <v>46</v>
-      </c>
-      <c r="I42">
-        <v>2020</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>